--- a/PM2/econ/week6/hw03_MarianaAvalos.xlsx
+++ b/PM2/econ/week6/hw03_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BC745-BC88-4F35-90BE-051BB94087A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D0210-28BF-4F9B-B4D9-806A3B343BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
   </bookViews>
   <sheets>
     <sheet name="ex3-class" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>años</t>
   </si>
@@ -399,6 +399,27 @@
   </si>
   <si>
     <t>data&gt;goal seek&gt; set cell (IRR)&gt; to value 0.12 (para q convenga)&gt;by changing cell(ingreso)</t>
+  </si>
+  <si>
+    <t>pzs/hr</t>
+  </si>
+  <si>
+    <t>pzs/mes</t>
+  </si>
+  <si>
+    <t>pvu</t>
+  </si>
+  <si>
+    <t>suponiendo q su capacidad mientras se toma el curso es de 20 pzs por hora</t>
+  </si>
+  <si>
+    <t>suponiendo la tasa</t>
+  </si>
+  <si>
+    <t>CON-SIN</t>
+  </si>
+  <si>
+    <t>AGAIN</t>
   </si>
 </sst>
 </file>
@@ -508,7 +529,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -520,7 +541,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
@@ -846,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9783A4-4E8E-4C2E-AEEA-673FAFA924C9}">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1330,7 @@
         <v>33250</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" ref="I14:P14" si="4">I5*I6</f>
+        <f t="shared" ref="I14:O14" si="4">I5*I6</f>
         <v>38587.5</v>
       </c>
       <c r="J14" s="4">
@@ -1910,114 +1930,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFA240-1413-4BE7-9E91-78A487040577}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1">
         <v>0.1</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>3</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>4</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>5</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>6</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>7</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>8</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>530000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>6</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>8</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>9</v>
       </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>-1*B3</f>
         <v>-530000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2027,23 +2047,20 @@
       <c r="C5" t="s">
         <v>54</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.25</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.7</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -2060,8 +2077,11 @@
       <c r="O5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -2071,28 +2091,24 @@
       <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6">
-        <f>B6*F5*B7*B8</f>
+      <c r="G6">
+        <f>B6*G5*B7*B8</f>
         <v>3600</v>
       </c>
-      <c r="G6">
-        <f>$C$6*$C$7*$C$8*(G5)</f>
+      <c r="H6">
+        <f>$C$6*$C$7*$C$8*(H5)</f>
         <v>14400</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:O6" si="0">$C$6*$C$7*$C$8*(H5)</f>
+      <c r="I6">
+        <f t="shared" ref="I6:P6" si="0">$C$6*$C$7*$C$8*(I5)</f>
         <v>17280</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>20160</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>28800</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -2114,8 +2130,12 @@
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -2125,19 +2145,15 @@
       <c r="C7">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>$B$9</f>
         <v>10</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:O7" si="1">$B$9</f>
-        <v>10</v>
-      </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H7:P7" si="1">$B$9</f>
         <v>10</v>
       </c>
       <c r="I7">
@@ -2168,8 +2184,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -2179,28 +2199,24 @@
       <c r="C8">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F8">
-        <f>F6*F7</f>
+      <c r="G8">
+        <f>G6*G7</f>
         <v>36000</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8:O8" si="2">G6*G7</f>
+      <c r="H8">
+        <f t="shared" ref="H8:P8" si="2">H6*H7</f>
         <v>144000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>172800</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="2"/>
         <v>201600</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
-        <v>288000</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
@@ -2222,40 +2238,40 @@
         <f t="shared" si="2"/>
         <v>288000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9">
-        <f>E4</f>
+      <c r="F9">
+        <f>F4</f>
         <v>-530000</v>
       </c>
-      <c r="F9">
-        <f>F8</f>
+      <c r="G9">
+        <f>G8</f>
         <v>36000</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:O9" si="3">G8</f>
+      <c r="H9">
+        <f t="shared" ref="H9:P9" si="3">H8</f>
         <v>144000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="3"/>
         <v>172800</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="3"/>
         <v>201600</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>288000</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -2277,135 +2293,136 @@
         <f t="shared" si="3"/>
         <v>288000</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
-        <f>E9/(1+$B$1)^(E3)</f>
+      <c r="F10">
+        <f>F9/(1+$B$1)^(F3)</f>
         <v>-530000</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:O10" si="4">F9/(1+$B$1)^(F3)</f>
+      <c r="G10">
+        <f t="shared" ref="G10:P10" si="4">G9/(1+$B$1)^(G3)</f>
         <v>32727.272727272724</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="4"/>
         <v>119008.26446280989</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="4"/>
         <v>129827.1975957926</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <f t="shared" si="4"/>
         <v>137695.51260159822</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="4"/>
         <v>178825.34104103662</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="4"/>
         <v>162568.49185548784</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="4"/>
         <v>147789.53805044346</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="4"/>
         <v>134354.12550040314</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>122140.11409127558</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="4"/>
         <v>111036.46735570507</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2">
-        <f>SUM(E10:O10)</f>
+      <c r="F11" s="2">
+        <f>SUM(F10:P10)</f>
         <v>745972.32528182515</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1">
-        <f>IRR(E9:O9)</f>
+      <c r="H11" s="1">
+        <f>IRR(F9:P9)</f>
         <v>0.29929128490097212</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>7</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>8</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>9</v>
       </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+      <c r="P14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.5</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0.6</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>0.7</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
@@ -2425,26 +2442,25 @@
       <c r="O16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>61</v>
       </c>
-      <c r="F17">
-        <f>$B$6*$B$7*$B$8*(F16)</f>
+      <c r="G17">
+        <f>$B$6*$B$7*$B$8*(G16)</f>
         <v>7200</v>
       </c>
-      <c r="G17">
-        <f t="shared" ref="G17:O17" si="5">$B$6*$B$7*$B$8*(G16)</f>
+      <c r="H17">
+        <f t="shared" ref="H17:P17" si="5">$B$6*$B$7*$B$8*(H16)</f>
         <v>8640</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="5"/>
         <v>10080</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>14400</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
@@ -2470,21 +2486,21 @@
         <f t="shared" si="5"/>
         <v>14400</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f>$B$9</f>
         <v>10</v>
       </c>
-      <c r="G18">
-        <f t="shared" ref="G18:O18" si="6">$B$9</f>
-        <v>10</v>
-      </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H18:P18" si="6">$B$9</f>
         <v>10</v>
       </c>
       <c r="I18">
@@ -2515,26 +2531,26 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19">
-        <f>F17*F18</f>
+      <c r="G19">
+        <f>G17*G18</f>
         <v>72000</v>
       </c>
-      <c r="G19">
-        <f t="shared" ref="G19:O19" si="7">G17*G18</f>
+      <c r="H19">
+        <f t="shared" ref="H19:P19" si="7">H17*H18</f>
         <v>86400</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="7"/>
         <v>100800</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="7"/>
-        <v>144000</v>
       </c>
       <c r="J19">
         <f t="shared" si="7"/>
@@ -2560,30 +2576,30 @@
         <f t="shared" si="7"/>
         <v>144000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
         <v>38</v>
       </c>
-      <c r="E20">
-        <f>E15</f>
+      <c r="F20">
+        <f>F15</f>
         <v>0</v>
       </c>
-      <c r="F20">
-        <f>F19</f>
+      <c r="G20">
+        <f>G19</f>
         <v>72000</v>
       </c>
-      <c r="G20">
-        <f t="shared" ref="G20:O20" si="8">G19</f>
+      <c r="H20">
+        <f t="shared" ref="H20:P20" si="8">H19</f>
         <v>86400</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="8"/>
         <v>100800</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="8"/>
-        <v>144000</v>
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
@@ -2609,147 +2625,147 @@
         <f t="shared" si="8"/>
         <v>144000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="E21">
-        <f>E20</f>
+      <c r="F21">
+        <f>F20</f>
         <v>0</v>
       </c>
-      <c r="F21">
-        <f>F20/(1+$B$1)^(F14)</f>
+      <c r="G21">
+        <f>G20/(1+$B$1)^(G14)</f>
         <v>65454.545454545449</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:O21" si="9">G20/(1+$B$1)^(G14)</f>
+      <c r="H21">
+        <f t="shared" ref="H21:P21" si="9">H20/(1+$B$1)^(H14)</f>
         <v>71404.958677685936</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="9"/>
         <v>75732.53193087902</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="9"/>
         <v>98353.937572570154</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="9"/>
         <v>89412.67052051831</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="9"/>
         <v>81284.245927743919</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="9"/>
         <v>73894.769025221729</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="9"/>
         <v>67177.06275020157</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="9"/>
         <v>61070.05704563779</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="9"/>
         <v>55518.233677852535</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="2">
-        <f>SUM(E21:O21)</f>
+      <c r="F22" s="2">
+        <f>SUM(F21:P21)</f>
         <v>739303.01258285635</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>7</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>9</v>
       </c>
-      <c r="O25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
+      <c r="P25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
-        <f>E4</f>
+      <c r="F26">
+        <f>F4</f>
         <v>-530000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
         <v>38</v>
       </c>
-      <c r="E27">
-        <f>E26</f>
+      <c r="F27">
+        <f>F26</f>
         <v>-530000</v>
-      </c>
-      <c r="F27">
-        <f>F9-F20</f>
-        <v>-36000</v>
       </c>
       <c r="G27">
         <f>G9-G20</f>
+        <v>-36000</v>
+      </c>
+      <c r="H27">
+        <f>H9-H20</f>
         <v>57600</v>
       </c>
-      <c r="H27">
-        <f t="shared" ref="G27:O27" si="10">H9-H20</f>
+      <c r="I27">
+        <f t="shared" ref="I27:P27" si="10">I9-I20</f>
         <v>72000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="10"/>
         <v>57600</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="10"/>
-        <v>144000</v>
       </c>
       <c r="K27">
         <f t="shared" si="10"/>
@@ -2771,87 +2787,1138 @@
         <f t="shared" si="10"/>
         <v>144000</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="E28">
-        <f>E26</f>
+      <c r="F28">
+        <f>F26</f>
         <v>-530000</v>
       </c>
-      <c r="F28">
-        <f>F27/(1+$B$1)^(F25)</f>
+      <c r="G28">
+        <f>G27/(1+$B$1)^(G25)</f>
         <v>-32727.272727272724</v>
       </c>
-      <c r="G28">
-        <f t="shared" ref="G28:O28" si="11">G27/(1+$B$1)^(G25)</f>
+      <c r="H28">
+        <f t="shared" ref="H28:P28" si="11">H27/(1+$B$1)^(H25)</f>
         <v>47603.305785123957</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="11"/>
         <v>54094.665664913584</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="11"/>
         <v>39341.575029028063</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="11"/>
         <v>89412.67052051831</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f t="shared" si="11"/>
         <v>81284.245927743919</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="11"/>
         <v>73894.769025221729</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="11"/>
         <v>67177.06275020157</v>
       </c>
-      <c r="N28">
-        <f>N27/(1+$B$1)^(N25)</f>
+      <c r="O28">
+        <f>O27/(1+$B$1)^(O25)</f>
         <v>61070.05704563779</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f t="shared" si="11"/>
         <v>55518.233677852535</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="2">
-        <f>SUM(E28:O28)</f>
+      <c r="F29" s="2">
+        <f>SUM(F28:P28)</f>
         <v>6669.3126989687589</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="1">
-        <f>IRR(E27:O27)</f>
+      <c r="F30" s="1">
+        <f>IRR(F27:P27)</f>
         <v>0.10212695847343012</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
+      <c r="M39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>-530000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <f>C42*E41</f>
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42" si="12">E42*F41</f>
+        <v>96</v>
+      </c>
+      <c r="G42">
+        <f>F42*G41</f>
+        <v>163.19999999999999</v>
+      </c>
+      <c r="H42">
+        <f>$C$42*H41</f>
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <f>$C$42*I41</f>
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <f>$C$42*J41</f>
+        <v>40</v>
+      </c>
+      <c r="K42">
+        <f>$C$42*K41</f>
+        <v>40</v>
+      </c>
+      <c r="L42">
+        <f>$C$42*L41</f>
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <f>$C$42*M41</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>24</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
+      </c>
+      <c r="H43">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>24</v>
+      </c>
+      <c r="J43">
+        <v>24</v>
+      </c>
+      <c r="K43">
+        <v>24</v>
+      </c>
+      <c r="L43">
+        <v>24</v>
+      </c>
+      <c r="M43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>30</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>30</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+      <c r="J44">
+        <v>30</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45">
+        <f>D42*D43*D44</f>
+        <v>7200</v>
+      </c>
+      <c r="E45">
+        <f>E42*E43*E44</f>
+        <v>43200</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:M45" si="13">F42*F43*F44</f>
+        <v>69120</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="13"/>
+        <v>117503.99999999999</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="13"/>
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
+        <f>D45*D46</f>
+        <v>72000</v>
+      </c>
+      <c r="E47" s="2">
+        <f>E45*E46</f>
+        <v>432000</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" ref="F47:M47" si="14">F45*F46</f>
+        <v>691200</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="14"/>
+        <v>1175039.9999999998</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="14"/>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <f>C40</f>
+        <v>-530000</v>
+      </c>
+      <c r="D48">
+        <f>D47</f>
+        <v>72000</v>
+      </c>
+      <c r="E48">
+        <f>E47</f>
+        <v>432000</v>
+      </c>
+      <c r="F48">
+        <f>F47</f>
+        <v>691200</v>
+      </c>
+      <c r="G48">
+        <f>G47</f>
+        <v>1175039.9999999998</v>
+      </c>
+      <c r="H48">
+        <f>H47</f>
+        <v>288000</v>
+      </c>
+      <c r="I48">
+        <f>I47</f>
+        <v>288000</v>
+      </c>
+      <c r="J48">
+        <f>J47</f>
+        <v>288000</v>
+      </c>
+      <c r="K48">
+        <f>K47</f>
+        <v>288000</v>
+      </c>
+      <c r="L48">
+        <f>L47</f>
+        <v>288000</v>
+      </c>
+      <c r="M48">
+        <f>M47</f>
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3">
+        <f>C48</f>
+        <v>-530000</v>
+      </c>
+      <c r="D49" s="3">
+        <f>D48/(1+$B$36)^(D39)</f>
+        <v>65454.545454545449</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" ref="E49:M49" si="15">E48/(1+$B$36)^(E39)</f>
+        <v>357024.79338842968</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="15"/>
+        <v>519308.79038317042</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="15"/>
+        <v>802568.13059217227</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="15"/>
+        <v>178825.34104103662</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="15"/>
+        <v>162568.49185548784</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="15"/>
+        <v>147789.53805044346</v>
+      </c>
+      <c r="K49" s="3">
+        <f t="shared" si="15"/>
+        <v>134354.12550040314</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="15"/>
+        <v>122140.11409127558</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="15"/>
+        <v>111036.46735570507</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="2">
+        <f>SUM(C49:M49)</f>
+        <v>2071070.3377126695</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="L54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <f>C55*D54</f>
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:F55" si="16">D55*E54</f>
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="16"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="G55">
+        <f>$C$55*G54</f>
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55:M55" si="17">$C$55*H54</f>
+        <v>20</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <v>24</v>
+      </c>
+      <c r="F56">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>24</v>
+      </c>
+      <c r="H56">
+        <v>24</v>
+      </c>
+      <c r="I56">
+        <v>24</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>24</v>
+      </c>
+      <c r="L56">
+        <v>24</v>
+      </c>
+      <c r="M56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>30</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>30</v>
+      </c>
+      <c r="J57">
+        <v>30</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>30</v>
+      </c>
+      <c r="M57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <f>D55*D56*D57</f>
+        <v>21600</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:M58" si="18">E55*E56*E57</f>
+        <v>34560</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="18"/>
+        <v>58751.999999999993</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="18"/>
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <f>D58*D59</f>
+        <v>216000</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ref="E60:M60" si="19">E58*E59</f>
+        <v>345600</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="19"/>
+        <v>587519.99999999988</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="19"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>D60</f>
+        <v>216000</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:M61" si="20">E60</f>
+        <v>345600</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="20"/>
+        <v>587519.99999999988</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="20"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <f>D61/(1+$B$36)^(D52)</f>
+        <v>196363.63636363635</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ref="E62:M62" si="21">E61/(1+$B$36)^(E52)</f>
+        <v>285619.83471074374</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="21"/>
+        <v>441412.47182569472</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="21"/>
+        <v>98353.937572570154</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="21"/>
+        <v>89412.67052051831</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="21"/>
+        <v>81284.245927743919</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="21"/>
+        <v>73894.769025221729</v>
+      </c>
+      <c r="K62" s="3">
+        <f t="shared" si="21"/>
+        <v>67177.06275020157</v>
+      </c>
+      <c r="L62" s="3">
+        <f t="shared" si="21"/>
+        <v>61070.05704563779</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="21"/>
+        <v>55518.233677852535</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="2">
+        <f>SUM(D62:M62)</f>
+        <v>1450106.9194198209</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>6</v>
+      </c>
+      <c r="J66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>9</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <f>C48-C61</f>
+        <v>-530000</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:M67" si="22">D48-D61</f>
+        <v>-144000</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="22"/>
+        <v>86400</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="22"/>
+        <v>103680.00000000012</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="22"/>
+        <v>1031039.9999999998</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="22"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <f>C67/(1+$B$36)^(C66)</f>
+        <v>-530000</v>
+      </c>
+      <c r="D68">
+        <f>D67/(1+$B$36)^(D66)</f>
+        <v>-130909.0909090909</v>
+      </c>
+      <c r="E68">
+        <f>E67/(1+$B$36)^(E66)</f>
+        <v>71404.958677685936</v>
+      </c>
+      <c r="F68">
+        <f>F67/(1+$B$36)^(F66)</f>
+        <v>77896.31855747565</v>
+      </c>
+      <c r="G68">
+        <f>G67/(1+$B$36)^(G66)</f>
+        <v>704214.1930196021</v>
+      </c>
+      <c r="H68">
+        <f>H67/(1+$B$36)^(H66)</f>
+        <v>89412.67052051831</v>
+      </c>
+      <c r="I68">
+        <f>I67/(1+$B$36)^(I66)</f>
+        <v>81284.245927743919</v>
+      </c>
+      <c r="J68">
+        <f>J67/(1+$B$36)^(J66)</f>
+        <v>73894.769025221729</v>
+      </c>
+      <c r="K68">
+        <f>K67/(1+$B$36)^(K66)</f>
+        <v>67177.06275020157</v>
+      </c>
+      <c r="L68">
+        <f>L67/(1+$B$36)^(L66)</f>
+        <v>61070.05704563779</v>
+      </c>
+      <c r="M68">
+        <f>M67/(1+$B$36)^(M66)</f>
+        <v>55518.233677852535</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="2">
+        <f>SUM(C68:M68)</f>
+        <v>620963.41829284851</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +4249,7 @@
         <v>905735.72943157807</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:G26" si="4">$D$23</f>
+        <f t="shared" ref="D26:F26" si="4">$D$23</f>
         <v>905735.72943157807</v>
       </c>
       <c r="E26">
@@ -3311,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF663C3E-75F9-4A8F-856B-C0807736CACC}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,7 +4443,7 @@
       <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F4" s="3"/>
@@ -3424,7 +4491,7 @@
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
@@ -3458,7 +4525,7 @@
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>30</v>
       </c>
       <c r="C7" t="s">
@@ -3492,7 +4559,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -3526,7 +4593,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="B9">
         <v>35</v>
       </c>
       <c r="C9" t="s">
@@ -3561,7 +4628,6 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
       <c r="E10" s="3" t="s">
         <v>110</v>
       </c>
@@ -3696,27 +4762,27 @@
       <c r="D14">
         <v>50</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <f>G11+G13</f>
         <v>151400</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f t="shared" ref="H14:K14" si="4">H11+H13</f>
         <v>151400</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f t="shared" si="4"/>
         <v>129500</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>111250</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <f t="shared" si="4"/>
         <v>122200</v>
       </c>
@@ -3786,7 +4852,7 @@
       <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>300000</v>
       </c>
       <c r="E17" t="s">
@@ -3801,7 +4867,7 @@
       <c r="A18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>25000</v>
       </c>
       <c r="E18" t="s">
@@ -3816,7 +4882,7 @@
       <c r="A19" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>90000</v>
       </c>
     </row>
@@ -3824,7 +4890,7 @@
       <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20">
         <v>250000</v>
       </c>
     </row>
@@ -3832,7 +4898,7 @@
       <c r="A21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21">
         <v>15000</v>
       </c>
     </row>

--- a/PM2/econ/week6/hw03_MarianaAvalos.xlsx
+++ b/PM2/econ/week6/hw03_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D0210-28BF-4F9B-B4D9-806A3B343BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C11941-1F99-408F-86FF-DEADB674960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
   </bookViews>
   <sheets>
     <sheet name="ex3-class" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9783A4-4E8E-4C2E-AEEA-673FAFA924C9}">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1932,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFA240-1413-4BE7-9E91-78A487040577}">
   <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -3023,27 +3023,27 @@
         <v>163.19999999999999</v>
       </c>
       <c r="H42">
-        <f>$C$42*H41</f>
+        <f t="shared" ref="H42:M42" si="13">$C$42*H41</f>
         <v>40</v>
       </c>
       <c r="I42">
-        <f>$C$42*I41</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J42">
-        <f>$C$42*J41</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="K42">
-        <f>$C$42*K41</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="L42">
-        <f>$C$42*L41</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="M42">
-        <f>$C$42*M41</f>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
     </row>
@@ -3130,35 +3130,35 @@
         <v>43200</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:M45" si="13">F42*F43*F44</f>
+        <f t="shared" ref="F45:M45" si="14">F42*F43*F44</f>
         <v>69120</v>
       </c>
       <c r="G45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>117503.99999999999</v>
       </c>
       <c r="H45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
       <c r="I45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
       <c r="J45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
       <c r="K45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
       <c r="L45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
       <c r="M45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>28800</v>
       </c>
     </row>
@@ -3211,35 +3211,35 @@
         <v>432000</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" ref="F47:M47" si="14">F45*F46</f>
+        <f t="shared" ref="F47:M47" si="15">F45*F46</f>
         <v>691200</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1175039.9999999998</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
       <c r="J47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>288000</v>
       </c>
     </row>
@@ -3252,43 +3252,43 @@
         <v>-530000</v>
       </c>
       <c r="D48">
-        <f>D47</f>
+        <f t="shared" ref="D48:M48" si="16">D47</f>
         <v>72000</v>
       </c>
       <c r="E48">
-        <f>E47</f>
+        <f t="shared" si="16"/>
         <v>432000</v>
       </c>
       <c r="F48">
-        <f>F47</f>
+        <f t="shared" si="16"/>
         <v>691200</v>
       </c>
       <c r="G48">
-        <f>G47</f>
+        <f t="shared" si="16"/>
         <v>1175039.9999999998</v>
       </c>
       <c r="H48">
-        <f>H47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
       <c r="I48">
-        <f>I47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
       <c r="J48">
-        <f>J47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
       <c r="K48">
-        <f>K47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
       <c r="L48">
-        <f>L47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
       <c r="M48">
-        <f>M47</f>
+        <f t="shared" si="16"/>
         <v>288000</v>
       </c>
     </row>
@@ -3305,39 +3305,39 @@
         <v>65454.545454545449</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" ref="E49:M49" si="15">E48/(1+$B$36)^(E39)</f>
+        <f t="shared" ref="E49:M49" si="17">E48/(1+$B$36)^(E39)</f>
         <v>357024.79338842968</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>519308.79038317042</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>802568.13059217227</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>178825.34104103662</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>162568.49185548784</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>147789.53805044346</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>134354.12550040314</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>122140.11409127558</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>111036.46735570507</v>
       </c>
     </row>
@@ -3437,11 +3437,11 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:F55" si="16">D55*E54</f>
+        <f t="shared" ref="E55:F55" si="18">D55*E54</f>
         <v>48</v>
       </c>
       <c r="F55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>81.599999999999994</v>
       </c>
       <c r="G55">
@@ -3449,27 +3449,27 @@
         <v>20</v>
       </c>
       <c r="H55">
-        <f t="shared" ref="H55:M55" si="17">$C$55*H54</f>
+        <f t="shared" ref="H55:M55" si="19">$C$55*H54</f>
         <v>20</v>
       </c>
       <c r="I55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="J55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="K55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="L55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="M55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
     </row>
@@ -3552,39 +3552,39 @@
         <v>21600</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:M58" si="18">E55*E56*E57</f>
+        <f t="shared" ref="E58:M58" si="20">E55*E56*E57</f>
         <v>34560</v>
       </c>
       <c r="F58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>58751.999999999993</v>
       </c>
       <c r="G58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="H58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="I58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="J58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="K58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="L58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
       <c r="M58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14400</v>
       </c>
     </row>
@@ -3633,39 +3633,39 @@
         <v>216000</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" ref="E60:M60" si="19">E58*E59</f>
+        <f t="shared" ref="E60:M60" si="21">E58*E59</f>
         <v>345600</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>587519.99999999988</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>144000</v>
       </c>
     </row>
@@ -3681,39 +3681,39 @@
         <v>216000</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:M61" si="20">E60</f>
+        <f t="shared" ref="E61:M61" si="22">E60</f>
         <v>345600</v>
       </c>
       <c r="F61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>587519.99999999988</v>
       </c>
       <c r="G61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="H61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="I61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="J61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="K61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="L61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="M61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
     </row>
@@ -3729,39 +3729,39 @@
         <v>196363.63636363635</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" ref="E62:M62" si="21">E61/(1+$B$36)^(E52)</f>
+        <f t="shared" ref="E62:M62" si="23">E61/(1+$B$36)^(E52)</f>
         <v>285619.83471074374</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>441412.47182569472</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>98353.937572570154</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>89412.67052051831</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>81284.245927743919</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>73894.769025221729</v>
       </c>
       <c r="K62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>67177.06275020157</v>
       </c>
       <c r="L62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>61070.05704563779</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>55518.233677852535</v>
       </c>
     </row>
@@ -3823,43 +3823,43 @@
         <v>-530000</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:M67" si="22">D48-D61</f>
+        <f t="shared" ref="D67:M67" si="24">D48-D61</f>
         <v>-144000</v>
       </c>
       <c r="E67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>86400</v>
       </c>
       <c r="F67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>103680.00000000012</v>
       </c>
       <c r="G67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1031039.9999999998</v>
       </c>
       <c r="H67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
       <c r="I67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
       <c r="J67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
       <c r="K67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
       <c r="L67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
       <c r="M67">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>144000</v>
       </c>
     </row>
@@ -3868,47 +3868,47 @@
         <v>39</v>
       </c>
       <c r="C68">
-        <f>C67/(1+$B$36)^(C66)</f>
+        <f t="shared" ref="C68:M68" si="25">C67/(1+$B$36)^(C66)</f>
         <v>-530000</v>
       </c>
       <c r="D68">
-        <f>D67/(1+$B$36)^(D66)</f>
+        <f t="shared" si="25"/>
         <v>-130909.0909090909</v>
       </c>
       <c r="E68">
-        <f>E67/(1+$B$36)^(E66)</f>
+        <f t="shared" si="25"/>
         <v>71404.958677685936</v>
       </c>
       <c r="F68">
-        <f>F67/(1+$B$36)^(F66)</f>
+        <f t="shared" si="25"/>
         <v>77896.31855747565</v>
       </c>
       <c r="G68">
-        <f>G67/(1+$B$36)^(G66)</f>
+        <f t="shared" si="25"/>
         <v>704214.1930196021</v>
       </c>
       <c r="H68">
-        <f>H67/(1+$B$36)^(H66)</f>
+        <f t="shared" si="25"/>
         <v>89412.67052051831</v>
       </c>
       <c r="I68">
-        <f>I67/(1+$B$36)^(I66)</f>
+        <f t="shared" si="25"/>
         <v>81284.245927743919</v>
       </c>
       <c r="J68">
-        <f>J67/(1+$B$36)^(J66)</f>
+        <f t="shared" si="25"/>
         <v>73894.769025221729</v>
       </c>
       <c r="K68">
-        <f>K67/(1+$B$36)^(K66)</f>
+        <f t="shared" si="25"/>
         <v>67177.06275020157</v>
       </c>
       <c r="L68">
-        <f>L67/(1+$B$36)^(L66)</f>
+        <f t="shared" si="25"/>
         <v>61070.05704563779</v>
       </c>
       <c r="M68">
-        <f>M67/(1+$B$36)^(M66)</f>
+        <f t="shared" si="25"/>
         <v>55518.233677852535</v>
       </c>
     </row>

--- a/PM2/econ/week6/hw03_MarianaAvalos.xlsx
+++ b/PM2/econ/week6/hw03_MarianaAvalos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C11941-1F99-408F-86FF-DEADB674960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F38834-CA74-4A6F-87DB-A0C283934C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
   </bookViews>
   <sheets>
     <sheet name="ex3-class" sheetId="1" r:id="rId1"/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9783A4-4E8E-4C2E-AEEA-673FAFA924C9}">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF663C3E-75F9-4A8F-856B-C0807736CACC}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PM2/econ/week6/hw03_MarianaAvalos.xlsx
+++ b/PM2/econ/week6/hw03_MarianaAvalos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\github-mariana\pm\PM2\econ\week6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F38834-CA74-4A6F-87DB-A0C283934C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF65E8A-595C-4FF2-9CB8-E5A0059F1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{73FFC963-B131-417C-A5A5-3D664BDADB21}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="134">
   <si>
     <t>años</t>
   </si>
@@ -413,13 +413,34 @@
     <t>suponiendo q su capacidad mientras se toma el curso es de 20 pzs por hora</t>
   </si>
   <si>
-    <t>suponiendo la tasa</t>
-  </si>
-  <si>
     <t>CON-SIN</t>
   </si>
   <si>
     <t>AGAIN</t>
+  </si>
+  <si>
+    <t>2ndo año de op</t>
+  </si>
+  <si>
+    <t>0 al 9 (10 brincos)</t>
+  </si>
+  <si>
+    <t>5% anual (ojo solo sobre precio*cant, no le sumes el de rescate y 5%</t>
+  </si>
+  <si>
+    <t>capital de trabajo (sueldos antes de vender)</t>
+  </si>
+  <si>
+    <t>ultimo de clase</t>
+  </si>
+  <si>
+    <t>suponiendo la tasa, 12% cap por mes</t>
+  </si>
+  <si>
+    <t>si tasa anual del 12% y quiero tasa mensual, tons 1% de tasa al mes</t>
+  </si>
+  <si>
+    <t>si dejas de ganar algo, lo pones como costo</t>
   </si>
 </sst>
 </file>
@@ -866,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9783A4-4E8E-4C2E-AEEA-673FAFA924C9}">
   <dimension ref="A2:P31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFA240-1413-4BE7-9E91-78A487040577}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,15 +2897,15 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3302,43 +3323,43 @@
       </c>
       <c r="D49" s="3">
         <f>D48/(1+$B$36)^(D39)</f>
-        <v>65454.545454545449</v>
+        <v>64285.714285714283</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" ref="E49:M49" si="17">E48/(1+$B$36)^(E39)</f>
-        <v>357024.79338842968</v>
+        <v>344387.75510204077</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="17"/>
-        <v>519308.79038317042</v>
+        <v>491982.5072886296</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="17"/>
-        <v>802568.13059217227</v>
+        <v>746759.16284881264</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="17"/>
-        <v>178825.34104103662</v>
+        <v>163418.93444695658</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="17"/>
-        <v>162568.49185548784</v>
+        <v>145909.76289906836</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="17"/>
-        <v>147789.53805044346</v>
+        <v>130276.57401702531</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="17"/>
-        <v>134354.12550040314</v>
+        <v>116318.36965805831</v>
       </c>
       <c r="L49" s="3">
         <f t="shared" si="17"/>
-        <v>122140.11409127558</v>
+        <v>103855.68719469491</v>
       </c>
       <c r="M49" s="3">
         <f t="shared" si="17"/>
-        <v>111036.46735570507</v>
+        <v>92728.292138120451</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3347,7 +3368,7 @@
       </c>
       <c r="C50" s="2">
         <f>SUM(C49:M49)</f>
-        <v>2071070.3377126695</v>
+        <v>1869922.7598791211</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3726,43 +3747,43 @@
       </c>
       <c r="D62" s="3">
         <f>D61/(1+$B$36)^(D52)</f>
-        <v>196363.63636363635</v>
+        <v>192857.14285714284</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" ref="E62:M62" si="23">E61/(1+$B$36)^(E52)</f>
-        <v>285619.83471074374</v>
+        <v>275510.2040816326</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="23"/>
-        <v>441412.47182569472</v>
+        <v>418185.13119533507</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="23"/>
-        <v>98353.937572570154</v>
+        <v>91514.603290295694</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="23"/>
-        <v>89412.67052051831</v>
+        <v>81709.467223478292</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="23"/>
-        <v>81284.245927743919</v>
+        <v>72954.881449534179</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="23"/>
-        <v>73894.769025221729</v>
+        <v>65138.287008512656</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="23"/>
-        <v>67177.06275020157</v>
+        <v>58159.184829029153</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="23"/>
-        <v>61070.05704563779</v>
+        <v>51927.843597347455</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" si="23"/>
-        <v>55518.233677852535</v>
+        <v>46364.146069060225</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -3771,12 +3792,12 @@
       </c>
       <c r="C63" s="2">
         <f>SUM(D62:M62)</f>
-        <v>1450106.9194198209</v>
+        <v>1354320.8916013683</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -3873,43 +3894,43 @@
       </c>
       <c r="D68">
         <f t="shared" si="25"/>
-        <v>-130909.0909090909</v>
+        <v>-128571.42857142857</v>
       </c>
       <c r="E68">
         <f t="shared" si="25"/>
-        <v>71404.958677685936</v>
+        <v>68877.551020408151</v>
       </c>
       <c r="F68">
         <f t="shared" si="25"/>
-        <v>77896.31855747565</v>
+        <v>73797.37609329453</v>
       </c>
       <c r="G68">
         <f t="shared" si="25"/>
-        <v>704214.1930196021</v>
+        <v>655244.55955851695</v>
       </c>
       <c r="H68">
         <f t="shared" si="25"/>
-        <v>89412.67052051831</v>
+        <v>81709.467223478292</v>
       </c>
       <c r="I68">
         <f t="shared" si="25"/>
-        <v>81284.245927743919</v>
+        <v>72954.881449534179</v>
       </c>
       <c r="J68">
         <f t="shared" si="25"/>
-        <v>73894.769025221729</v>
+        <v>65138.287008512656</v>
       </c>
       <c r="K68">
         <f t="shared" si="25"/>
-        <v>67177.06275020157</v>
+        <v>58159.184829029153</v>
       </c>
       <c r="L68">
         <f t="shared" si="25"/>
-        <v>61070.05704563779</v>
+        <v>51927.843597347455</v>
       </c>
       <c r="M68">
         <f t="shared" si="25"/>
-        <v>55518.233677852535</v>
+        <v>46364.146069060225</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -3918,7 +3939,32 @@
       </c>
       <c r="C69" s="2">
         <f>SUM(C68:M68)</f>
-        <v>620963.41829284851</v>
+        <v>515601.86827775312</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3928,13 +3974,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F740F410-CBAB-4935-9D37-209453F84C0A}">
-  <dimension ref="A2:G31"/>
+  <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A17" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4046,8 +4095,8 @@
         <v>114</v>
       </c>
       <c r="B13">
-        <f>-1*(SUM(B5:B7))</f>
-        <v>-1500000</v>
+        <f>-1*(SUM(B5:B7))-150000</f>
+        <v>-1650000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4056,7 +4105,7 @@
       </c>
       <c r="B14">
         <f>B13</f>
-        <v>-1500000</v>
+        <v>-1650000</v>
       </c>
       <c r="C14">
         <f>-1*B8</f>
@@ -4085,7 +4134,7 @@
       </c>
       <c r="B15">
         <f>B14/(1+$B$10)^(B12)</f>
-        <v>-1500000</v>
+        <v>-1650000</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:G15" si="1">C14/(1+$B$10)^(C12)</f>
@@ -4114,7 +4163,7 @@
       </c>
       <c r="B16" s="2">
         <f>SUM(B15:G15)</f>
-        <v>-3230292.5771256024</v>
+        <v>-3380292.5771256024</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -4207,7 +4256,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="2">
-        <v>905735.72943157807</v>
+        <v>843280.21853810118</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4237,7 +4286,7 @@
       </c>
       <c r="B25">
         <f>B13</f>
-        <v>-1500000</v>
+        <v>-1650000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -4246,23 +4295,23 @@
       </c>
       <c r="C26">
         <f>$D$23</f>
-        <v>905735.72943157807</v>
+        <v>843280.21853810118</v>
       </c>
       <c r="D26">
         <f t="shared" ref="D26:F26" si="4">$D$23</f>
-        <v>905735.72943157807</v>
+        <v>843280.21853810118</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>905735.72943157807</v>
+        <v>843280.21853810118</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>905735.72943157807</v>
+        <v>843280.21853810118</v>
       </c>
       <c r="G26">
-        <f>$D$23</f>
-        <v>905735.72943157807</v>
+        <f>$D$23+600000</f>
+        <v>1443280.2185381013</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4296,27 +4345,27 @@
       </c>
       <c r="B28">
         <f>B25</f>
-        <v>-1500000</v>
+        <v>-1650000</v>
       </c>
       <c r="C28">
         <f>C26+C27</f>
-        <v>425735.72943157807</v>
+        <v>363280.21853810118</v>
       </c>
       <c r="D28">
         <f t="shared" ref="D28:G28" si="6">D26+D27</f>
-        <v>425735.72943157807</v>
+        <v>363280.21853810118</v>
       </c>
       <c r="E28">
         <f t="shared" si="6"/>
-        <v>425735.72943157807</v>
+        <v>363280.21853810118</v>
       </c>
       <c r="F28">
         <f t="shared" si="6"/>
-        <v>425735.72943157807</v>
+        <v>363280.21853810118</v>
       </c>
       <c r="G28">
         <f t="shared" si="6"/>
-        <v>425735.72943157807</v>
+        <v>963280.2185381013</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4325,27 +4374,27 @@
       </c>
       <c r="B29">
         <f>B28/(1+$B$10)^(B24)</f>
-        <v>-1500000</v>
+        <v>-1650000</v>
       </c>
       <c r="C29">
         <f t="shared" ref="C29:G29" si="7">C28/(1+$B$10)^(C24)</f>
-        <v>380121.18699248036</v>
+        <v>324357.33798044745</v>
       </c>
       <c r="D29">
         <f t="shared" si="7"/>
-        <v>339393.91695757175</v>
+        <v>289604.7660539709</v>
       </c>
       <c r="E29">
         <f t="shared" si="7"/>
-        <v>303030.28299783188</v>
+        <v>258575.68397675973</v>
       </c>
       <c r="F29">
         <f t="shared" si="7"/>
-        <v>270562.75267663563</v>
+        <v>230871.14640782119</v>
       </c>
       <c r="G29">
         <f t="shared" si="7"/>
-        <v>241573.88631842466</v>
+        <v>546591.06558099994</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,7 +4403,7 @@
       </c>
       <c r="B30">
         <f>SUM(B29:G29)</f>
-        <v>34682.025942944339</v>
+        <v>-9.3132257461547852E-10</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,10 +4412,20 @@
       </c>
       <c r="B31" s="1">
         <f>IRR(B28:G28)</f>
-        <v>0.12929237854349851</v>
+        <v>0.11999999999999988</v>
       </c>
       <c r="C31" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4378,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF663C3E-75F9-4A8F-856B-C0807736CACC}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4428,7 +4487,7 @@
       </c>
       <c r="F3" s="10">
         <f>-1*B22</f>
-        <v>-680000</v>
+        <v>-555000</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -4793,7 +4852,7 @@
       </c>
       <c r="F15">
         <f>F3</f>
-        <v>-680000</v>
+        <v>-555000</v>
       </c>
       <c r="G15">
         <f>G9-G14</f>
@@ -4825,7 +4884,7 @@
       </c>
       <c r="F16">
         <f>F15</f>
-        <v>-680000</v>
+        <v>-555000</v>
       </c>
       <c r="G16">
         <f>G15/(1+$B$27)^(G2)</f>
@@ -4860,7 +4919,7 @@
       </c>
       <c r="F17" s="2">
         <f>SUM(F16:K16)</f>
-        <v>86285.000970271605</v>
+        <v>211285.00097027159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4875,7 +4934,7 @@
       </c>
       <c r="F18" s="7">
         <f>IRR(F15:K15)</f>
-        <v>0.19975207393196914</v>
+        <v>0.29244870291440472</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4891,7 +4950,7 @@
         <v>98</v>
       </c>
       <c r="B20">
-        <v>250000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,7 +4964,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>B17+B18+B19+B20+B21</f>
-        <v>680000</v>
+        <v>555000</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
